--- a/doc/外部設計/04_外部設計書（最寄り駅変更）_チーム名 のコピー.xlsx
+++ b/doc/外部設計/04_外部設計書（最寄り駅変更）_チーム名 のコピー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C8D29F2-413D-439E-8623-72813C028171}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328BFA62-56CC-4450-B7EB-A5B51A2BA981}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -401,14 +401,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>text</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>button</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>String</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -421,6 +413,18 @@
   </si>
   <si>
     <t>station_home</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>checkbox</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -846,24 +850,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -894,9 +880,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -915,7 +898,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2590,8 +2594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AR6" sqref="AR6"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="T67" sqref="T67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2602,154 +2606,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="34" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34" t="s">
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34" t="s">
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="35" t="s">
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="20"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="36"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="21" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="42">
+      <c r="X2" s="37"/>
+      <c r="Y2" s="38">
         <v>45085</v>
       </c>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="22" t="s">
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="24"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="41"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="36" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="34"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -4220,7 +4224,7 @@
       <c r="AM40" s="4"/>
       <c r="AN40" s="5"/>
     </row>
-    <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
       <c r="B41" s="3" t="s">
         <v>9</v>
@@ -5306,7 +5310,7 @@
       <c r="AM66" s="7"/>
       <c r="AN66" s="7"/>
     </row>
-    <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="E67" s="8"/>
@@ -5346,7 +5350,7 @@
       <c r="AM67" s="7"/>
       <c r="AN67" s="7"/>
     </row>
-    <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="E68" s="8"/>
@@ -5388,7 +5392,7 @@
       <c r="AM68" s="7"/>
       <c r="AN68" s="7"/>
     </row>
-    <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="E69" s="8"/>
@@ -5430,7 +5434,7 @@
       <c r="AM69" s="7"/>
       <c r="AN69" s="7"/>
     </row>
-    <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="E70" s="8"/>
@@ -5470,7 +5474,7 @@
       <c r="AM70" s="7"/>
       <c r="AN70" s="7"/>
     </row>
-    <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="E71" s="8"/>
@@ -5510,7 +5514,7 @@
       <c r="AM71" s="7"/>
       <c r="AN71" s="7"/>
     </row>
-    <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="8"/>
@@ -5552,7 +5556,7 @@
       <c r="AM72" s="7"/>
       <c r="AN72" s="7"/>
     </row>
-    <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="9"/>
       <c r="C73" s="10"/>
@@ -5594,7 +5598,7 @@
       <c r="AM73" s="11"/>
       <c r="AN73" s="7"/>
     </row>
-    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="9"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -5636,7 +5640,7 @@
       <c r="AM74" s="10"/>
       <c r="AN74" s="11"/>
     </row>
-    <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -5678,7 +5682,7 @@
       <c r="AM75" s="4"/>
       <c r="AN75" s="5"/>
     </row>
-    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
       <c r="B76" s="3" t="s">
         <v>10</v>
@@ -5722,7 +5726,7 @@
       <c r="AM76" s="5"/>
       <c r="AN76" s="7"/>
     </row>
-    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="2"/>
@@ -5764,7 +5768,7 @@
       <c r="AM77" s="7"/>
       <c r="AN77" s="7"/>
     </row>
-    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
       <c r="B78" s="12" t="s">
         <v>11</v>
@@ -5995,12 +5999,12 @@
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
       <c r="L82" s="14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
       <c r="O82" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
@@ -6010,7 +6014,7 @@
       <c r="U82" s="14"/>
       <c r="V82" s="17"/>
       <c r="W82" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="15"/>
@@ -6051,7 +6055,7 @@
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
       <c r="L83" s="14" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
@@ -6101,7 +6105,7 @@
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
       <c r="L84" s="14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
@@ -6151,12 +6155,12 @@
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
       <c r="L85" s="14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
       <c r="O85" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P85" s="15"/>
       <c r="Q85" s="15"/>
@@ -6166,13 +6170,13 @@
       <c r="U85" s="14"/>
       <c r="V85" s="17"/>
       <c r="W85" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X85" s="15"/>
       <c r="Y85" s="15"/>
       <c r="Z85" s="17"/>
       <c r="AA85" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
@@ -6207,7 +6211,7 @@
       <c r="J86" s="15"/>
       <c r="K86" s="17"/>
       <c r="L86" s="14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
@@ -6238,7 +6242,7 @@
       <c r="AM86" s="18"/>
       <c r="AN86" s="7"/>
     </row>
-    <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="12"/>
       <c r="C87" s="13"/>
@@ -6280,7 +6284,7 @@
       <c r="AM87" s="18"/>
       <c r="AN87" s="7"/>
     </row>
-    <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="12"/>
       <c r="C88" s="13"/>
@@ -6322,7 +6326,7 @@
       <c r="AM88" s="18"/>
       <c r="AN88" s="7"/>
     </row>
-    <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="12"/>
       <c r="C89" s="13"/>
@@ -6364,7 +6368,7 @@
       <c r="AM89" s="18"/>
       <c r="AN89" s="7"/>
     </row>
-    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="12"/>
       <c r="C90" s="13"/>
@@ -6406,7 +6410,7 @@
       <c r="AM90" s="18"/>
       <c r="AN90" s="7"/>
     </row>
-    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="12"/>
       <c r="C91" s="13"/>
@@ -6448,7 +6452,7 @@
       <c r="AM91" s="18"/>
       <c r="AN91" s="7"/>
     </row>
-    <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="12"/>
       <c r="C92" s="13"/>
@@ -6490,7 +6494,7 @@
       <c r="AM92" s="18"/>
       <c r="AN92" s="7"/>
     </row>
-    <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="12"/>
       <c r="C93" s="13"/>
@@ -6532,7 +6536,7 @@
       <c r="AM93" s="18"/>
       <c r="AN93" s="7"/>
     </row>
-    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="12"/>
       <c r="C94" s="13"/>
@@ -6574,7 +6578,7 @@
       <c r="AM94" s="18"/>
       <c r="AN94" s="7"/>
     </row>
-    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="12"/>
       <c r="C95" s="13"/>
@@ -6616,7 +6620,7 @@
       <c r="AM95" s="18"/>
       <c r="AN95" s="7"/>
     </row>
-    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="B96" s="12"/>
       <c r="C96" s="13"/>
@@ -6658,7 +6662,7 @@
       <c r="AM96" s="18"/>
       <c r="AN96" s="7"/>
     </row>
-    <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6"/>
       <c r="B97" s="12"/>
       <c r="C97" s="13"/>
@@ -6700,7 +6704,7 @@
       <c r="AM97" s="18"/>
       <c r="AN97" s="7"/>
     </row>
-    <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="B98" s="12"/>
       <c r="C98" s="13"/>
@@ -6742,7 +6746,7 @@
       <c r="AM98" s="18"/>
       <c r="AN98" s="7"/>
     </row>
-    <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="B99" s="12"/>
       <c r="C99" s="13"/>
@@ -6784,7 +6788,7 @@
       <c r="AM99" s="18"/>
       <c r="AN99" s="7"/>
     </row>
-    <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="B100" s="12"/>
       <c r="C100" s="13"/>
@@ -6826,7 +6830,7 @@
       <c r="AM100" s="18"/>
       <c r="AN100" s="7"/>
     </row>
-    <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="B101" s="12"/>
       <c r="C101" s="13"/>
@@ -6868,7 +6872,7 @@
       <c r="AM101" s="18"/>
       <c r="AN101" s="7"/>
     </row>
-    <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
       <c r="B102" s="12"/>
       <c r="C102" s="13"/>
@@ -6910,7 +6914,7 @@
       <c r="AM102" s="18"/>
       <c r="AN102" s="7"/>
     </row>
-    <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="B103" s="12"/>
       <c r="C103" s="13"/>
@@ -6952,7 +6956,7 @@
       <c r="AM103" s="18"/>
       <c r="AN103" s="7"/>
     </row>
-    <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="B104" s="12"/>
       <c r="C104" s="13"/>
@@ -6994,7 +6998,7 @@
       <c r="AM104" s="18"/>
       <c r="AN104" s="7"/>
     </row>
-    <row r="105" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="B105" s="12"/>
       <c r="C105" s="13"/>
@@ -7036,7 +7040,7 @@
       <c r="AM105" s="18"/>
       <c r="AN105" s="7"/>
     </row>
-    <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="6"/>
       <c r="B106" s="12"/>
       <c r="C106" s="13"/>
@@ -7078,7 +7082,7 @@
       <c r="AM106" s="18"/>
       <c r="AN106" s="7"/>
     </row>
-    <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="B107" s="12"/>
       <c r="C107" s="13"/>
@@ -7120,7 +7124,7 @@
       <c r="AM107" s="18"/>
       <c r="AN107" s="7"/>
     </row>
-    <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
       <c r="B108" s="12"/>
       <c r="C108" s="13"/>
@@ -7162,7 +7166,7 @@
       <c r="AM108" s="18"/>
       <c r="AN108" s="7"/>
     </row>
-    <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="9"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>

--- a/doc/外部設計/04_外部設計書（最寄り駅変更）_チーム名 のコピー.xlsx
+++ b/doc/外部設計/04_外部設計書（最寄り駅変更）_チーム名 のコピー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328BFA62-56CC-4450-B7EB-A5B51A2BA981}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E579579-1F1F-4472-8A31-96F018D2DB86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -243,9 +243,6 @@
     <t>※タップするとそれぞれの画面に遷移する</t>
   </si>
   <si>
-    <t>6.「位置情報検索ボタン」をタップした時</t>
-  </si>
-  <si>
     <t>ホーム画面の位置情報検索ボタンを押す</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -255,20 +252,6 @@
   </si>
   <si>
     <t>現在地から一番近い駅を取得する</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>５.「通知ボタン」の値はユーザマスタに保存する。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ボタンがオンのときのみ変更が可能となる</t>
-    <rPh sb="11" eb="13">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カノウ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -321,37 +304,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>位置情報検索ボタン</t>
-    <rPh sb="0" eb="6">
-      <t>イチジョウホウケンサク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>登録ボタン</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>8,「登録ボタン」をタップしたとき</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>7,テキストボックスに駅名を表示</t>
-    <rPh sb="11" eb="13">
-      <t>エキメイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>駅名表示</t>
     <rPh sb="0" eb="4">
       <t>エキメイヒョウジ</t>
@@ -390,13 +342,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>register</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
     <t>image</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -425,6 +370,120 @@
   </si>
   <si>
     <t>checkbox</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6.「最寄り駅検索ボタン」をタップした時</t>
+    <rPh sb="3" eb="5">
+      <t>モヨ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>最寄り駅検索ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>モヨ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>エキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>check_message</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>注意表示</t>
+    <rPh sb="0" eb="4">
+      <t>チュウイヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8,「更新ボタン」をタップしたとき</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>５.「変更ボタン」</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>7,ユーザマスタの最寄り駅を取得してきて表示する</t>
+    <rPh sb="9" eb="11">
+      <t>モヨ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>エキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>7,テキストボックスに検索してきた駅名を表示</t>
+    <rPh sb="11" eb="13">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>エキメイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>変更ボタンが右のときのみ最寄り駅検索ボタンを押せるようになる</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モヨ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>エキケンサク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>update</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2227,8 +2286,70 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5518150" y="5238750"/>
+          <a:off x="5613400" y="5238750"/>
           <a:ext cx="549438" cy="559192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>９</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="469900" cy="559192"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03190B8B-831A-44AB-B9DB-223FD84783B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5200650" y="4470400"/>
+          <a:ext cx="469900" cy="559192"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2594,8 +2715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="T67" sqref="T67"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="S88" sqref="S88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4447,7 +4568,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -4530,7 +4651,7 @@
       <c r="B48" s="6"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -4572,7 +4693,7 @@
       <c r="B49" s="6"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -4653,6 +4774,9 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="E51" s="8"/>
+      <c r="F51" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -5106,7 +5230,7 @@
       <c r="B62" s="6"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -5148,7 +5272,7 @@
       <c r="B63" s="6"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
@@ -5189,7 +5313,7 @@
       <c r="B64" s="6"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -5231,7 +5355,7 @@
       <c r="B65" s="6"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
@@ -5273,7 +5397,7 @@
       <c r="B66" s="6"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -5355,7 +5479,7 @@
       <c r="B68" s="6"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
@@ -5397,7 +5521,7 @@
       <c r="B69" s="6"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -5837,19 +5961,19 @@
         <v>1</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
       <c r="G79" s="13"/>
       <c r="H79" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I79" s="16"/>
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
       <c r="L79" s="14" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
@@ -5887,19 +6011,19 @@
         <v>2</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
       <c r="L80" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
@@ -5937,19 +6061,19 @@
         <v>3</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
       <c r="L81" s="14" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
@@ -5987,24 +6111,24 @@
         <v>4</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
       <c r="L82" s="14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
       <c r="O82" s="14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
@@ -6014,13 +6138,13 @@
       <c r="U82" s="14"/>
       <c r="V82" s="17"/>
       <c r="W82" s="14" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
       <c r="AA82" s="14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
@@ -6043,19 +6167,19 @@
         <v>5</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
       <c r="L83" s="14" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
@@ -6093,19 +6217,19 @@
         <v>6</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
       <c r="L84" s="14" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
@@ -6143,24 +6267,24 @@
         <v>7</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
       <c r="H85" s="14" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
       <c r="L85" s="14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
       <c r="O85" s="14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P85" s="15"/>
       <c r="Q85" s="15"/>
@@ -6170,13 +6294,13 @@
       <c r="U85" s="14"/>
       <c r="V85" s="17"/>
       <c r="W85" s="14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="X85" s="15"/>
       <c r="Y85" s="15"/>
       <c r="Z85" s="17"/>
       <c r="AA85" s="14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
@@ -6195,27 +6319,21 @@
     <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="12"/>
-      <c r="C86" s="13">
+      <c r="C86" s="1">
         <v>8</v>
       </c>
-      <c r="D86" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I86" s="16"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="M86" s="15"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="14"/>
+      <c r="D86" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O86" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="P86" s="15"/>
       <c r="Q86" s="15"/>
       <c r="R86" s="17"/>
@@ -6245,16 +6363,24 @@
     <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
+      <c r="C87" s="13">
+        <v>9</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
       <c r="G87" s="13"/>
-      <c r="H87" s="14"/>
+      <c r="H87" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="I87" s="16"/>
       <c r="J87" s="15"/>
       <c r="K87" s="17"/>
-      <c r="L87" s="14"/>
+      <c r="L87" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="M87" s="15"/>
       <c r="N87" s="17"/>
       <c r="O87" s="14"/>

--- a/doc/外部設計/04_外部設計書（最寄り駅変更）_チーム名 のコピー.xlsx
+++ b/doc/外部設計/04_外部設計書（最寄り駅変更）_チーム名 のコピー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E579579-1F1F-4472-8A31-96F018D2DB86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2086B399-1B7A-4F55-8E95-AC141F821760}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>　　　駅名</a:t>
+              <a:t>〇○駅　　　</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1609,44 +1609,6 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="15" name="グラフィックス 14" descr="路面電車 枠線">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6F123E-E842-4B91-A866-32D7B877C623}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2859944" y="4210633"/>
-            <a:ext cx="355690" cy="254548"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
           <xdr:cNvPr id="16" name="直線コネクタ 15">
@@ -2715,8 +2677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="S88" sqref="S88"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AF21" sqref="AF21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
